--- a/Deliverables/Understanding Data/NYBG/Inventory Data/NYBG_Species Code_Master List_JAS12022016.xlsx
+++ b/Deliverables/Understanding Data/NYBG/Inventory Data/NYBG_Species Code_Master List_JAS12022016.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edem Dosseh\Dropbox\ISQA 8086 From Data to Decisions\NYBG\NYBG\Inventory Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikash Kumar\OneDrive\UNOmaha\Study\Sem 3\ISQA 8086 - 2\NY Botanical Garden\1 - Work\DataSnipers\Deliverables\Understanding Data\NYBG\Inventory Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E59C6CBCFA620360A947A80FF1535EC7D573F297" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{81AD8EE3-0133-4988-94FF-2633B4E539BD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12900" windowHeight="6330" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12900" windowHeight="6330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Spp. List (woody + herb)" sheetId="1" r:id="rId1"/>
@@ -1390,7 +1391,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1870,24 +1871,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.25" style="9" customWidth="1"/>
     <col min="4" max="4" width="17" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="9"/>
+    <col min="5" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>161</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>163</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>165</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>167</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>169</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>322</v>
       </c>
@@ -1973,7 +1974,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>171</v>
       </c>
@@ -2001,7 +2002,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>173</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>175</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>270</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>176</v>
       </c>
@@ -2062,7 +2063,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>178</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>99</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>180</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>182</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>184</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>186</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>324</v>
       </c>
@@ -2178,7 +2179,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>18</v>
       </c>
@@ -2211,7 +2212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>188</v>
       </c>
@@ -2231,7 +2232,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>190</v>
       </c>
@@ -2248,7 +2249,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>191</v>
       </c>
@@ -2259,7 +2260,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>273</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>329</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>193</v>
       </c>
@@ -2298,7 +2299,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>102</v>
       </c>
@@ -2309,7 +2310,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>20</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>104</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>22</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>423</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>195</v>
       </c>
@@ -2370,7 +2371,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>197</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>199</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>201</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>24</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>26</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>28</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>275</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>30</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>106</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>277</v>
       </c>
@@ -2486,7 +2487,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>156</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>32</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>202</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>419</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>204</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>206</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>208</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>108</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>279</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>34</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>110</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>210</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>112</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>36</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>326</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>38</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>40</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>212</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>42</v>
       </c>
@@ -2713,7 +2714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>114</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>116</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>214</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>216</v>
       </c>
@@ -2757,7 +2758,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>281</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>118</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>218</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>220</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>44</v>
       </c>
@@ -2812,7 +2813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>46</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>222</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>48</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>50</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>283</v>
       </c>
@@ -2867,7 +2868,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>224</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>226</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>228</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>230</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>52</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>285</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>232</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>287</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>234</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>120</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>54</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>56</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>58</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>60</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>62</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>236</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>238</v>
       </c>
@@ -3060,7 +3061,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="93" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>421</v>
       </c>
@@ -3077,7 +3078,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>240</v>
       </c>
@@ -3088,7 +3089,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>242</v>
       </c>
@@ -3099,7 +3100,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>244</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>246</v>
       </c>
@@ -3121,7 +3122,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>248</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>250</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>252</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>254</v>
       </c>
@@ -3165,7 +3166,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>64</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>66</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>68</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>122</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>124</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>126</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>256</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>128</v>
       </c>
@@ -3253,7 +3254,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>130</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>159</v>
       </c>
@@ -3275,7 +3276,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>132</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>134</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>258</v>
       </c>
@@ -3308,7 +3309,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>70</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>72</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>289</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>291</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>74</v>
       </c>
@@ -3363,7 +3364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>76</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>78</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>260</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>293</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>80</v>
       </c>
@@ -3418,7 +3419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>262</v>
       </c>
@@ -3435,7 +3436,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>264</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>266</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>82</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>136</v>
       </c>
@@ -3485,7 +3486,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>138</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>140</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>142</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>144</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>146</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>148</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>150</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>152</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>154</v>
       </c>
@@ -3584,7 +3585,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>84</v>
       </c>
@@ -3595,7 +3596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>86</v>
       </c>
@@ -3606,7 +3607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>295</v>
       </c>
@@ -3617,7 +3618,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>297</v>
       </c>
@@ -3628,7 +3629,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>268</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>88</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>90</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>91</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>92</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>93</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>96</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>95</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
         <v>94</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>97</v>
       </c>
@@ -3738,7 +3739,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>98</v>
       </c>
@@ -3750,7 +3751,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D160">
+  <autoFilter ref="A1:D160" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:E157">
       <sortCondition ref="B1:B157"/>
     </sortState>
@@ -3766,21 +3767,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>331</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>303</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>401</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>330</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>323</v>
       </c>
@@ -3850,7 +3851,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>363</v>
       </c>
@@ -3861,7 +3862,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>364</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>332</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>365</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>333</v>
       </c>
@@ -3917,7 +3918,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>305</v>
       </c>
@@ -3928,7 +3929,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -3942,7 +3943,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>402</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>306</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>403</v>
       </c>
@@ -3981,7 +3982,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>334</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>335</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>336</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>308</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>404</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>367</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>337</v>
       </c>
@@ -4088,7 +4089,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>383</v>
       </c>
@@ -4099,7 +4100,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>310</v>
       </c>
@@ -4110,7 +4111,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>338</v>
       </c>
@@ -4127,7 +4128,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>311</v>
       </c>
@@ -4138,7 +4139,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>339</v>
       </c>
@@ -4155,7 +4156,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>385</v>
       </c>
@@ -4169,7 +4170,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>386</v>
       </c>
@@ -4180,7 +4181,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>415</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>387</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>395</v>
       </c>
@@ -4216,7 +4217,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>405</v>
       </c>
@@ -4227,7 +4228,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>313</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>406</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>340</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>407</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>314</v>
       </c>
@@ -4297,7 +4298,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>388</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>416</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>408</v>
       </c>
@@ -4333,7 +4334,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>409</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>410</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>389</v>
       </c>
@@ -4369,7 +4370,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>341</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>411</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>342</v>
       </c>
@@ -4408,7 +4409,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>368</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>396</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>369</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>343</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>370</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>344</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>316</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>317</v>
       </c>
@@ -4508,7 +4509,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>345</v>
       </c>
@@ -4525,7 +4526,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>346</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>347</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>412</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>371</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>397</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>348</v>
       </c>
@@ -4612,7 +4613,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>349</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>318</v>
       </c>
@@ -4637,7 +4638,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>350</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>351</v>
       </c>
@@ -4671,7 +4672,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>352</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>372</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>353</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>373</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>319</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>374</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>413</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>375</v>
       </c>
@@ -4780,7 +4781,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>354</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>376</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>355</v>
       </c>
@@ -4825,7 +4826,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>356</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>357</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>377</v>
       </c>
@@ -4873,7 +4874,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>320</v>
       </c>
@@ -4884,7 +4885,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>417</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>358</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>378</v>
       </c>
@@ -4923,7 +4924,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>359</v>
       </c>
@@ -4940,7 +4941,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>414</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>360</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>390</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>379</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>361</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>380</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>381</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>382</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>362</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>321</v>
       </c>
@@ -5068,7 +5069,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>398</v>
       </c>
@@ -5080,7 +5081,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F96"/>
+  <autoFilter ref="A1:F96" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Deliverables/Understanding Data/NYBG/Inventory Data/NYBG_Species Code_Master List_JAS12022016.xlsx
+++ b/Deliverables/Understanding Data/NYBG/Inventory Data/NYBG_Species Code_Master List_JAS12022016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikash Kumar\OneDrive\UNOmaha\Study\Sem 3\ISQA 8086 - 2\NY Botanical Garden\1 - Work\DataSnipers\Deliverables\Understanding Data\NYBG\Inventory Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_E59C6CBCFA620360A947A80FF1535EC7D573F297" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{81AD8EE3-0133-4988-94FF-2633B4E539BD}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_E59C6CBCFA620360A947A80FF1535EC7D573F297" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{2653DA01-00D5-41DC-A892-47C5B06E17E4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12900" windowHeight="6330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,10 @@
     <sheet name="pre-2016 Codes (need reconciled" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Master Spp. List (woody + herb)'!$A$1:$D$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Master Spp. List (woody + herb)'!$A$1:$F$160</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'pre-2016 Codes (need reconciled'!$A$1:$F$96</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1876,7 +1876,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F6"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3751,11 +3751,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D160" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:E157">
-      <sortCondition ref="B1:B157"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F160" xr:uid="{5134C2F8-3BF2-4E6A-9338-3B6CFC40769D}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3771,7 +3767,7 @@
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
